--- a/loaded_influencer_data/sydneywangg/sydneywangg_video.xlsx
+++ b/loaded_influencer_data/sydneywangg/sydneywangg_video.xlsx
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7478185109326253354</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -528,19 +528,19 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>7.492354740061162</v>
+        <v>7.342143906020558</v>
       </c>
       <c r="I2" t="n">
-        <v>6.880733944954128</v>
+        <v>6.754772393538913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6116207951070336</v>
+        <v>0.5873715124816447</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1529051987767584</v>
+        <v>0.1468428781204112</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -552,16 +552,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7477939618407533866</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -570,27 +570,27 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not sure what I’m running on either #nyc #work #realestate #showings #nightlife #nyc #work #realestate #showings</t>
+          <t>Not sure what I’m running on either #nyc #work #realestate #showings #nightlife</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.397260273972603</v>
+        <v>7.343124165554073</v>
       </c>
       <c r="I3" t="n">
-        <v>6.849315068493151</v>
+        <v>6.809078771695594</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.547945205479452</v>
+        <v>0.5340453938584779</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.1335113484646195</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -602,16 +602,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7476973366998502699</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.716136631330977</v>
+        <v>8.670520231213873</v>
       </c>
       <c r="I4" t="n">
-        <v>8.598351001177857</v>
+        <v>8.554913294797688</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1177856301531213</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="L4" t="n">
-        <v>0.353356890459364</v>
+        <v>0.3468208092485549</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -652,13 +652,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7476951477869677866</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C5" t="n">
         <v>40</v>
@@ -674,23 +674,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>#coffeeaddiction</t>
+          <t>#work #nyc #nightlife</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.612903225806452</v>
+        <v>6.539074960127592</v>
       </c>
       <c r="I5" t="n">
-        <v>6.451612903225806</v>
+        <v>6.379585326953747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1594896331738437</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1594896331738437</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7476230471198788910</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1390</v>
+        <v>1397</v>
       </c>
       <c r="C6" t="n">
         <v>69</v>
@@ -728,19 +728,19 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.251798561151079</v>
+        <v>5.225483178239084</v>
       </c>
       <c r="I6" t="n">
-        <v>4.964028776978417</v>
+        <v>4.93915533285612</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2877697841726619</v>
+        <v>0.2863278453829635</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1438848920863309</v>
+        <v>0.1431639226914817</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7475220613565648170</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C7" t="n">
         <v>16</v>
@@ -774,14 +774,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>솔로 어드벤처 &lt;3 #latenightdrives #nyc #newyorkcity</t>
+          <t>#grwm #makeuproutine</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5.333333333333334</v>
+        <v>5.245901639344262</v>
       </c>
       <c r="I7" t="n">
-        <v>5.333333333333334</v>
+        <v>5.245901639344262</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -802,69 +802,70 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7473927030690696478</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>solo adventures &lt;3
+#latenightdrives #nyc #newyorkcity</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.680067001675042</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.680067001675042</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sydneywangg/video/7472606145367231790</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>656</v>
+      </c>
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>우리는 여기서 쉬지 않는다#dayinmylife #work #realestate #realestateagent #nyc #newyork #nightlife #bartender</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6.418918918918918</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1689189189189189</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.3378378378378378</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sydneywangg/video/7472606145367231790</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>649</v>
-      </c>
-      <c r="C9" t="n">
-        <v>42</v>
-      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -874,85 +875,85 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>레오 코어</t>
+          <t>we don’t rest over here #dayinmylife #work #realestate #realestateagent #nyc #newyork #nightlife</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.471494607087827</v>
+        <v>5.792682926829269</v>
       </c>
       <c r="I9" t="n">
-        <v>6.471494607087827</v>
+        <v>5.640243902439025</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3081664098613252</v>
+        <v>0.3048780487804878</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2025-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sydneywangg/video/7471503837413575979</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>712</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Leo core</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6.179775280898876</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.179775280898876</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2808988764044944</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@sydneywangg/video/7471503837413575979</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>704</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>💕 #grwm #grwmroutine #makeup #makeuptutorial #makeuproutine #work #bartender #nyc #nightlife</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3.977272727272727</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.693181818181818</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2840909090909091</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7470978796578032942</t>
         </is>
@@ -1002,7 +1003,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7469488872032963883</t>
         </is>
@@ -1052,7 +1053,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7468507628826578218</t>
         </is>
@@ -1102,7 +1103,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7468499183067254062</t>
         </is>
@@ -1152,7 +1153,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7467787375851162922</t>
         </is>
@@ -1202,7 +1203,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7464796714398944558</t>
         </is>
@@ -1252,7 +1253,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7464425608680918315</t>
         </is>
@@ -1298,7 +1299,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7461755274177613087</t>
         </is>
@@ -1344,7 +1345,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7460398235786661166</t>
         </is>
@@ -1394,7 +1395,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7453144367419723051</t>
         </is>
@@ -1440,7 +1441,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7452198381046287659</t>
         </is>
@@ -1490,7 +1491,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7451073796016000298</t>
         </is>
@@ -1540,7 +1541,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7448468677353147691</t>
         </is>
@@ -1590,7 +1591,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7448119653634690347</t>
         </is>
@@ -1640,7 +1641,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7447784505697471790</t>
         </is>
@@ -1690,7 +1691,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7447205998722288942</t>
         </is>
@@ -1740,7 +1741,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/photo/7446186997468777770</t>
         </is>
@@ -1790,7 +1791,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7446162058439101739</t>
         </is>
@@ -1840,7 +1841,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7445955517278899502</t>
         </is>
@@ -1890,7 +1891,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7445737224794033450</t>
         </is>
@@ -1940,7 +1941,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/photo/7445513005581831466</t>
         </is>
@@ -1990,7 +1991,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7445504122184387886</t>
         </is>
@@ -2040,7 +2041,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7445425572886433070</t>
         </is>
@@ -2090,7 +2091,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7444287440531000622</t>
         </is>
@@ -2140,7 +2141,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7443017031030557995</t>
         </is>
@@ -2190,7 +2191,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7442431270446976299</t>
         </is>
@@ -2240,7 +2241,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7442233083010567466</t>
         </is>
@@ -2290,7 +2291,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7441848639212932398</t>
         </is>
@@ -2340,7 +2341,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7441839889626254634</t>
         </is>
@@ -2390,7 +2391,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7441839069052685614</t>
         </is>
@@ -2440,7 +2441,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7440688276010208558</t>
         </is>
@@ -2490,7 +2491,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/photo/7440312914956930346</t>
         </is>
@@ -2540,7 +2541,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7439971764995657006</t>
         </is>
@@ -2590,7 +2591,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7439859979265510702</t>
         </is>
@@ -2640,7 +2641,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7438464246406614318</t>
         </is>
@@ -2690,7 +2691,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7438084833848364334</t>
         </is>
@@ -2740,7 +2741,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7437362249410399534</t>
         </is>
@@ -2790,7 +2791,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7437351475187158315</t>
         </is>
@@ -2840,7 +2841,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7437350766794313003</t>
         </is>
@@ -2890,7 +2891,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@sydneywangg/video/7436482747796917546</t>
         </is>
